--- a/biology/Botanique/Suessiales/Suessiales.xlsx
+++ b/biology/Botanique/Suessiales/Suessiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Suessiales sont un ordre d'algues dinoflagellées. 
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique de ce taxon est Suessiales Fensome, Taylor, Norris, Sarjeant, Wharton &amp; Williams, 1993[1].
-Suessiales a pour synonyme[2],[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom scientifique de ce taxon est Suessiales Fensome, Taylor, Norris, Sarjeant, Wharton &amp; Williams, 1993.
+Suessiales a pour synonyme, :
 Suessiida</t>
         </is>
       </c>
@@ -543,21 +557,23 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des familles selon GBIF       (4 juin 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des familles selon GBIF       (4 juin 2021) :
 Biecheleriaceae
 Borghiellaceae
 Suessiaceae
 Symbiodiniaceae
-Liste des familles selon AlgaeBase                                           (4 juin 2021)[1] :
+Liste des familles selon AlgaeBase                                           (4 juin 2021) :
 Borghiellaceae Moestrup, K.Lindberg &amp; Daugbjerg
 Hemidiniaceae Bourrelly ex P.C.Silva
 Lophodiniaceae B.F.Osorio
 Sphaerodiniaceae Moestrup &amp; Calado
 Suessiaceae Fensome &amp; al.
 Symbiodiniaceae Fensome &amp; al.
-Liste des familles selon World Register of Marine Species                               (21 mai 2021)[4] :
+Liste des familles selon World Register of Marine Species                               (21 mai 2021) :
 Biecheleriaceae
 Borghiellaceae
 Hemidiniaceae Bourrelly ex P.C.Silva, 1980
